--- a/data/Coregonine-Temperature-Experiment-AdultMeasurements.xlsx
+++ b/data/Coregonine-Temperature-Experiment-AdultMeasurements.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Latitude-Embryo/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Latitude-Embryo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7C0B5A-8A44-3F44-ABD5-98074F59CC7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF49FE2-2219-BC41-992D-98DEE6A188C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="460" windowWidth="13920" windowHeight="16600" xr2:uid="{3E48306B-C0C5-BC40-9A7D-9108E98D2F1F}"/>
+    <workbookView xWindow="18620" yWindow="500" windowWidth="18200" windowHeight="19060" xr2:uid="{3E48306B-C0C5-BC40-9A7D-9108E98D2F1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="18">
   <si>
     <t>Population</t>
   </si>
@@ -67,6 +70,27 @@
   </si>
   <si>
     <t>LO-Cisco</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Min of TL</t>
+  </si>
+  <si>
+    <t>Total Min of TL</t>
+  </si>
+  <si>
+    <t>Total Max of TL</t>
+  </si>
+  <si>
+    <t>Max of TL</t>
   </si>
 </sst>
 </file>
@@ -102,8 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,6 +148,973 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44215.557853124999" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="97" xr:uid="{F00F0A57-96FB-A944-AFF3-25AA36D67308}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E1048576" sheet="Adult"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Population" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="LK-Vendace"/>
+        <s v="LK-Whitefish"/>
+        <s v="LS-Cisco"/>
+        <s v="LO-Cisco"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sex" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="F"/>
+        <s v="M"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
+    </cacheField>
+    <cacheField name="TL" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="120" maxValue="503" count="78">
+        <n v="125"/>
+        <n v="167"/>
+        <n v="154"/>
+        <n v="156"/>
+        <n v="158"/>
+        <n v="129"/>
+        <n v="151"/>
+        <n v="120"/>
+        <n v="142"/>
+        <n v="137"/>
+        <n v="140"/>
+        <n v="153"/>
+        <n v="144"/>
+        <n v="134"/>
+        <n v="147"/>
+        <n v="133"/>
+        <n v="121"/>
+        <n v="258"/>
+        <n v="251"/>
+        <n v="240"/>
+        <n v="276"/>
+        <n v="254"/>
+        <n v="266"/>
+        <n v="309"/>
+        <n v="378"/>
+        <n v="260"/>
+        <n v="290"/>
+        <n v="334"/>
+        <n v="313"/>
+        <n v="242"/>
+        <n v="261"/>
+        <n v="263"/>
+        <n v="271"/>
+        <n v="417"/>
+        <n v="326"/>
+        <n v="423"/>
+        <n v="409"/>
+        <n v="428"/>
+        <n v="464"/>
+        <n v="470"/>
+        <n v="401"/>
+        <n v="503"/>
+        <n v="427"/>
+        <n v="416"/>
+        <n v="463"/>
+        <n v="374"/>
+        <n v="386"/>
+        <n v="361"/>
+        <n v="444"/>
+        <n v="406"/>
+        <n v="413"/>
+        <n v="448"/>
+        <n v="388"/>
+        <n v="418"/>
+        <n v="405"/>
+        <n v="347"/>
+        <n v="391"/>
+        <n v="343"/>
+        <n v="350"/>
+        <n v="384"/>
+        <n v="425"/>
+        <n v="402"/>
+        <n v="355"/>
+        <n v="375"/>
+        <n v="360"/>
+        <n v="379"/>
+        <n v="321"/>
+        <n v="325"/>
+        <n v="365"/>
+        <n v="394"/>
+        <n v="376"/>
+        <n v="415"/>
+        <n v="368"/>
+        <n v="380"/>
+        <n v="353"/>
+        <n v="367"/>
+        <n v="373"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="FM" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9.6" maxValue="970"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="97">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="11.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="25.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="3"/>
+    <n v="24.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="13.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="6"/>
+    <n v="19.100000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="11.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="8"/>
+    <n v="13.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="6"/>
+    <n v="15.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="8"/>
+    <n v="14.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="9"/>
+    <n v="13.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="10"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="11"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="12"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="6"/>
+    <n v="16.899999999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="13"/>
+    <n v="12.3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="9"/>
+    <x v="14"/>
+    <n v="13.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="9"/>
+    <n v="13.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="11"/>
+    <x v="15"/>
+    <n v="12.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="12"/>
+    <x v="16"/>
+    <n v="9.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="17"/>
+    <n v="135.19999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="18"/>
+    <n v="108.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="19"/>
+    <n v="94.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="20"/>
+    <n v="141.30000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="21"/>
+    <n v="116.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="22"/>
+    <n v="129.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="18"/>
+    <n v="93.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="23"/>
+    <n v="202.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="24"/>
+    <n v="385.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="25"/>
+    <n v="130.30000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="26"/>
+    <n v="155.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="27"/>
+    <n v="279.3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="22"/>
+    <n v="122.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="28"/>
+    <n v="218.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="29"/>
+    <n v="95.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="9"/>
+    <x v="29"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="30"/>
+    <n v="120.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="11"/>
+    <x v="31"/>
+    <n v="122"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="12"/>
+    <x v="32"/>
+    <n v="133.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="33"/>
+    <n v="654.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="34"/>
+    <n v="298.89999999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="35"/>
+    <n v="776.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="36"/>
+    <n v="656.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="37"/>
+    <n v="612.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="38"/>
+    <n v="831.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="39"/>
+    <n v="882.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="40"/>
+    <n v="509.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="41"/>
+    <n v="970"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="42"/>
+    <n v="585.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="11"/>
+    <x v="43"/>
+    <n v="579.20000000000005"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="12"/>
+    <x v="44"/>
+    <n v="755.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="43"/>
+    <n v="644.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="45"/>
+    <n v="334.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="46"/>
+    <n v="433.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="47"/>
+    <n v="376.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="48"/>
+    <n v="660.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="49"/>
+    <n v="471.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="50"/>
+    <n v="542"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="44"/>
+    <n v="750"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="9"/>
+    <x v="51"/>
+    <n v="719.7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="52"/>
+    <n v="491"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="11"/>
+    <x v="53"/>
+    <n v="582.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="12"/>
+    <x v="54"/>
+    <n v="573.79999999999995"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="13"/>
+    <x v="55"/>
+    <n v="359"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="14"/>
+    <x v="56"/>
+    <n v="552.20000000000005"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="40"/>
+    <n v="573.70000000000005"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="16"/>
+    <x v="57"/>
+    <n v="317"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="56"/>
+    <n v="635.29999999999995"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="54"/>
+    <n v="704"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="58"/>
+    <n v="469.6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="59"/>
+    <n v="557.79999999999995"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="60"/>
+    <n v="795.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="55"/>
+    <n v="446.6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="61"/>
+    <n v="646.79999999999995"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="62"/>
+    <n v="349.6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="63"/>
+    <n v="563.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="64"/>
+    <n v="466.6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="11"/>
+    <x v="56"/>
+    <n v="616.79999999999995"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="12"/>
+    <x v="65"/>
+    <n v="558.79999999999995"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="62"/>
+    <n v="355.1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="66"/>
+    <n v="283"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="67"/>
+    <n v="280.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="68"/>
+    <n v="417.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="69"/>
+    <n v="510.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="70"/>
+    <n v="486.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="71"/>
+    <n v="640"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="72"/>
+    <n v="490"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="9"/>
+    <x v="73"/>
+    <n v="525.20000000000005"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="74"/>
+    <n v="408.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="11"/>
+    <x v="57"/>
+    <n v="340.2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="12"/>
+    <x v="63"/>
+    <n v="477.3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="13"/>
+    <x v="75"/>
+    <n v="454.3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="14"/>
+    <x v="74"/>
+    <n v="375.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="76"/>
+    <n v="440.2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="16"/>
+    <x v="61"/>
+    <n v="608.29999999999995"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <m/>
+    <x v="77"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD37B30F-0408-7341-A805-CBACA7158804}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G1:M6" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="79">
+        <item x="7"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="29"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="22"/>
+        <item x="32"/>
+        <item x="20"/>
+        <item x="26"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="34"/>
+        <item x="27"/>
+        <item x="57"/>
+        <item x="55"/>
+        <item x="58"/>
+        <item x="74"/>
+        <item x="62"/>
+        <item x="64"/>
+        <item x="47"/>
+        <item x="68"/>
+        <item x="75"/>
+        <item x="72"/>
+        <item x="76"/>
+        <item x="45"/>
+        <item x="63"/>
+        <item x="70"/>
+        <item x="24"/>
+        <item x="65"/>
+        <item x="73"/>
+        <item x="59"/>
+        <item x="46"/>
+        <item x="52"/>
+        <item x="56"/>
+        <item x="69"/>
+        <item x="40"/>
+        <item x="61"/>
+        <item x="54"/>
+        <item x="49"/>
+        <item x="36"/>
+        <item x="50"/>
+        <item x="71"/>
+        <item x="43"/>
+        <item x="33"/>
+        <item x="53"/>
+        <item x="35"/>
+        <item x="60"/>
+        <item x="42"/>
+        <item x="37"/>
+        <item x="48"/>
+        <item x="51"/>
+        <item x="44"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="77"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="0"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Min of TL" fld="3" subtotal="min" baseField="0" baseItem="0"/>
+    <dataField name="Max of TL" fld="3" subtotal="max" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E38C00-8BCC-C44F-9CD1-57696D1BBA15}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,9 +1427,22 @@
     <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +1458,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -466,8 +1478,20 @@
       <c r="E2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -483,8 +1507,23 @@
       <c r="E3">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -500,8 +1539,29 @@
       <c r="E4">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>347</v>
+      </c>
+      <c r="I4" s="3">
+        <v>425</v>
+      </c>
+      <c r="J4" s="3">
+        <v>326</v>
+      </c>
+      <c r="K4" s="3">
+        <v>503</v>
+      </c>
+      <c r="L4" s="3">
+        <v>326</v>
+      </c>
+      <c r="M4" s="3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -517,8 +1577,29 @@
       <c r="E5">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3">
+        <v>321</v>
+      </c>
+      <c r="I5" s="3">
+        <v>415</v>
+      </c>
+      <c r="J5" s="3">
+        <v>343</v>
+      </c>
+      <c r="K5" s="3">
+        <v>463</v>
+      </c>
+      <c r="L5" s="3">
+        <v>321</v>
+      </c>
+      <c r="M5" s="3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -534,8 +1615,29 @@
       <c r="E6">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3">
+        <v>321</v>
+      </c>
+      <c r="I6" s="3">
+        <v>425</v>
+      </c>
+      <c r="J6" s="3">
+        <v>326</v>
+      </c>
+      <c r="K6" s="3">
+        <v>503</v>
+      </c>
+      <c r="L6" s="3">
+        <v>321</v>
+      </c>
+      <c r="M6" s="3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -552,7 +1654,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -569,7 +1671,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -586,7 +1688,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -603,7 +1705,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -620,7 +1722,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -637,7 +1739,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -654,7 +1756,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -671,7 +1773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -688,7 +1790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>

--- a/data/Coregonine-Temperature-Experiment-AdultMeasurements.xlsx
+++ b/data/Coregonine-Temperature-Experiment-AdultMeasurements.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Latitude-Embryo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF49FE2-2219-BC41-992D-98DEE6A188C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7B12C2-4AD2-3C4B-99CC-CE20E32B22C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18620" yWindow="500" windowWidth="18200" windowHeight="19060" xr2:uid="{3E48306B-C0C5-BC40-9A7D-9108E98D2F1F}"/>
+    <workbookView xWindow="15400" yWindow="500" windowWidth="18200" windowHeight="19060" xr2:uid="{3E48306B-C0C5-BC40-9A7D-9108E98D2F1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="14">
   <si>
     <t>Population</t>
   </si>
@@ -78,19 +78,7 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Min of TL</t>
-  </si>
-  <si>
-    <t>Total Min of TL</t>
-  </si>
-  <si>
-    <t>Total Max of TL</t>
-  </si>
-  <si>
-    <t>Max of TL</t>
+    <t>Average of FM</t>
   </si>
 </sst>
 </file>
@@ -126,12 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -258,7 +243,104 @@
       </sharedItems>
     </cacheField>
     <cacheField name="FM" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9.6" maxValue="970"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9.6" maxValue="970" count="96">
+        <n v="11.5"/>
+        <n v="25.9"/>
+        <n v="25"/>
+        <n v="24.1"/>
+        <n v="21"/>
+        <n v="13.5"/>
+        <n v="19.100000000000001"/>
+        <n v="11.2"/>
+        <n v="13.9"/>
+        <n v="15.9"/>
+        <n v="14.1"/>
+        <n v="13.2"/>
+        <n v="12"/>
+        <n v="18"/>
+        <n v="14"/>
+        <n v="16.899999999999999"/>
+        <n v="12.3"/>
+        <n v="13.6"/>
+        <n v="12.7"/>
+        <n v="9.6"/>
+        <n v="135.19999999999999"/>
+        <n v="108.5"/>
+        <n v="94.5"/>
+        <n v="141.30000000000001"/>
+        <n v="116.2"/>
+        <n v="129.6"/>
+        <n v="93.7"/>
+        <n v="202.2"/>
+        <n v="385.5"/>
+        <n v="130.30000000000001"/>
+        <n v="155.6"/>
+        <n v="279.3"/>
+        <n v="122.8"/>
+        <n v="218.2"/>
+        <n v="95.9"/>
+        <n v="90"/>
+        <n v="120.8"/>
+        <n v="122"/>
+        <n v="133.5"/>
+        <n v="654.5"/>
+        <n v="298.89999999999998"/>
+        <n v="776.9"/>
+        <n v="656.3"/>
+        <n v="612.1"/>
+        <n v="831.8"/>
+        <n v="882.4"/>
+        <n v="509.3"/>
+        <n v="970"/>
+        <n v="585.1"/>
+        <n v="579.20000000000005"/>
+        <n v="755.8"/>
+        <n v="644.1"/>
+        <n v="334.1"/>
+        <n v="433.2"/>
+        <n v="376.2"/>
+        <n v="660.3"/>
+        <n v="471.9"/>
+        <n v="542"/>
+        <n v="750"/>
+        <n v="719.7"/>
+        <n v="491"/>
+        <n v="582.9"/>
+        <n v="573.79999999999995"/>
+        <n v="359"/>
+        <n v="552.20000000000005"/>
+        <n v="573.70000000000005"/>
+        <n v="317"/>
+        <n v="635.29999999999995"/>
+        <n v="704"/>
+        <n v="469.6"/>
+        <n v="557.79999999999995"/>
+        <n v="795.8"/>
+        <n v="446.6"/>
+        <n v="646.79999999999995"/>
+        <n v="349.6"/>
+        <n v="563.4"/>
+        <n v="466.6"/>
+        <n v="616.79999999999995"/>
+        <n v="558.79999999999995"/>
+        <n v="355.1"/>
+        <n v="283"/>
+        <n v="280.5"/>
+        <n v="417.5"/>
+        <n v="510.9"/>
+        <n v="486.4"/>
+        <n v="640"/>
+        <n v="490"/>
+        <n v="525.20000000000005"/>
+        <n v="408.4"/>
+        <n v="340.2"/>
+        <n v="477.3"/>
+        <n v="454.3"/>
+        <n v="375.4"/>
+        <n v="440.2"/>
+        <n v="608.29999999999995"/>
+        <m/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -276,686 +358,686 @@
     <x v="0"/>
     <n v="1"/>
     <x v="0"/>
-    <n v="11.5"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
     <x v="1"/>
-    <n v="25.9"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="3"/>
     <x v="2"/>
-    <n v="25"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="3"/>
-    <n v="24.1"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="5"/>
     <x v="4"/>
-    <n v="21"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="6"/>
     <x v="5"/>
-    <n v="13.5"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="7"/>
     <x v="6"/>
-    <n v="19.100000000000001"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="8"/>
     <x v="7"/>
-    <n v="11.2"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <n v="9"/>
     <x v="8"/>
-    <n v="13.9"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
     <x v="6"/>
-    <n v="15.9"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
     <x v="8"/>
-    <n v="14.1"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="3"/>
     <x v="9"/>
-    <n v="13.2"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="10"/>
-    <n v="12"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="5"/>
     <x v="11"/>
-    <n v="18"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="6"/>
     <x v="12"/>
-    <n v="14"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="7"/>
     <x v="6"/>
-    <n v="16.899999999999999"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="8"/>
     <x v="13"/>
-    <n v="12.3"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="9"/>
     <x v="14"/>
-    <n v="13.9"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="10"/>
     <x v="9"/>
-    <n v="13.6"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="11"/>
     <x v="15"/>
-    <n v="12.7"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="12"/>
     <x v="16"/>
-    <n v="9.6"/>
+    <x v="19"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <n v="1"/>
     <x v="17"/>
-    <n v="135.19999999999999"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <n v="2"/>
     <x v="18"/>
-    <n v="108.5"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <n v="3"/>
     <x v="19"/>
-    <n v="94.5"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="20"/>
-    <n v="141.30000000000001"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <n v="5"/>
     <x v="21"/>
-    <n v="116.2"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <n v="7"/>
     <x v="22"/>
-    <n v="129.6"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <n v="8"/>
     <x v="18"/>
-    <n v="93.7"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <n v="1"/>
     <x v="23"/>
-    <n v="202.2"/>
+    <x v="27"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <n v="2"/>
     <x v="24"/>
-    <n v="385.5"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <n v="3"/>
     <x v="25"/>
-    <n v="130.30000000000001"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <n v="4"/>
     <x v="26"/>
-    <n v="155.6"/>
+    <x v="30"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <n v="5"/>
     <x v="27"/>
-    <n v="279.3"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <n v="6"/>
     <x v="22"/>
-    <n v="122.8"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <n v="7"/>
     <x v="28"/>
-    <n v="218.2"/>
+    <x v="33"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <n v="8"/>
     <x v="29"/>
-    <n v="95.9"/>
+    <x v="34"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <n v="9"/>
     <x v="29"/>
-    <n v="90"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <n v="10"/>
     <x v="30"/>
-    <n v="120.8"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <n v="11"/>
     <x v="31"/>
-    <n v="122"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <n v="12"/>
     <x v="32"/>
-    <n v="133.5"/>
+    <x v="38"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
     <x v="33"/>
-    <n v="654.5"/>
+    <x v="39"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <n v="2"/>
     <x v="34"/>
-    <n v="298.89999999999998"/>
+    <x v="40"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <n v="3"/>
     <x v="35"/>
-    <n v="776.9"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <n v="4"/>
     <x v="36"/>
-    <n v="656.3"/>
+    <x v="42"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <n v="5"/>
     <x v="37"/>
-    <n v="612.1"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <n v="6"/>
     <x v="38"/>
-    <n v="831.8"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <n v="7"/>
     <x v="39"/>
-    <n v="882.4"/>
+    <x v="45"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <n v="8"/>
     <x v="40"/>
-    <n v="509.3"/>
+    <x v="46"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <n v="9"/>
     <x v="41"/>
-    <n v="970"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <n v="10"/>
     <x v="42"/>
-    <n v="585.1"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <n v="11"/>
     <x v="43"/>
-    <n v="579.20000000000005"/>
+    <x v="49"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <n v="12"/>
     <x v="44"/>
-    <n v="755.8"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="1"/>
     <x v="43"/>
-    <n v="644.1"/>
+    <x v="51"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="2"/>
     <x v="45"/>
-    <n v="334.1"/>
+    <x v="52"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="3"/>
     <x v="46"/>
-    <n v="433.2"/>
+    <x v="53"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="4"/>
     <x v="47"/>
-    <n v="376.2"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="5"/>
     <x v="48"/>
-    <n v="660.3"/>
+    <x v="55"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="6"/>
     <x v="49"/>
-    <n v="471.9"/>
+    <x v="56"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="7"/>
     <x v="50"/>
-    <n v="542"/>
+    <x v="57"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="8"/>
     <x v="44"/>
-    <n v="750"/>
+    <x v="58"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="9"/>
     <x v="51"/>
-    <n v="719.7"/>
+    <x v="59"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="10"/>
     <x v="52"/>
-    <n v="491"/>
+    <x v="60"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="11"/>
     <x v="53"/>
-    <n v="582.9"/>
+    <x v="61"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="12"/>
     <x v="54"/>
-    <n v="573.79999999999995"/>
+    <x v="62"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="13"/>
     <x v="55"/>
-    <n v="359"/>
+    <x v="63"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="14"/>
     <x v="56"/>
-    <n v="552.20000000000005"/>
+    <x v="64"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="15"/>
     <x v="40"/>
-    <n v="573.70000000000005"/>
+    <x v="65"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <n v="16"/>
     <x v="57"/>
-    <n v="317"/>
+    <x v="66"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <n v="1"/>
     <x v="56"/>
-    <n v="635.29999999999995"/>
+    <x v="67"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <n v="2"/>
     <x v="54"/>
-    <n v="704"/>
+    <x v="68"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <n v="3"/>
     <x v="58"/>
-    <n v="469.6"/>
+    <x v="69"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <n v="4"/>
     <x v="59"/>
-    <n v="557.79999999999995"/>
+    <x v="70"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <n v="5"/>
     <x v="60"/>
-    <n v="795.8"/>
+    <x v="71"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <n v="6"/>
     <x v="55"/>
-    <n v="446.6"/>
+    <x v="72"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <n v="7"/>
     <x v="61"/>
-    <n v="646.79999999999995"/>
+    <x v="73"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <n v="8"/>
     <x v="62"/>
-    <n v="349.6"/>
+    <x v="74"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <n v="9"/>
     <x v="63"/>
-    <n v="563.4"/>
+    <x v="75"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <n v="10"/>
     <x v="64"/>
-    <n v="466.6"/>
+    <x v="76"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <n v="11"/>
     <x v="56"/>
-    <n v="616.79999999999995"/>
+    <x v="77"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <n v="12"/>
     <x v="65"/>
-    <n v="558.79999999999995"/>
+    <x v="78"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="1"/>
     <x v="62"/>
-    <n v="355.1"/>
+    <x v="79"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="2"/>
     <x v="66"/>
-    <n v="283"/>
+    <x v="80"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="3"/>
     <x v="67"/>
-    <n v="280.5"/>
+    <x v="81"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="4"/>
     <x v="68"/>
-    <n v="417.5"/>
+    <x v="82"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="5"/>
     <x v="69"/>
-    <n v="510.9"/>
+    <x v="83"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="6"/>
     <x v="70"/>
-    <n v="486.4"/>
+    <x v="84"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="7"/>
     <x v="71"/>
-    <n v="640"/>
+    <x v="85"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="8"/>
     <x v="72"/>
-    <n v="490"/>
+    <x v="86"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="9"/>
     <x v="73"/>
-    <n v="525.20000000000005"/>
+    <x v="87"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="10"/>
     <x v="74"/>
-    <n v="408.4"/>
+    <x v="88"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="11"/>
     <x v="57"/>
-    <n v="340.2"/>
+    <x v="89"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="12"/>
     <x v="63"/>
-    <n v="477.3"/>
+    <x v="90"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="13"/>
     <x v="75"/>
-    <n v="454.3"/>
+    <x v="91"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="14"/>
     <x v="74"/>
-    <n v="375.4"/>
+    <x v="92"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="15"/>
     <x v="76"/>
-    <n v="440.2"/>
+    <x v="93"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <n v="16"/>
     <x v="61"/>
-    <n v="608.29999999999995"/>
+    <x v="94"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
     <m/>
     <x v="77"/>
-    <m/>
+    <x v="95"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD37B30F-0408-7341-A805-CBACA7158804}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G1:M6" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD37B30F-0408-7341-A805-CBACA7158804}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G1:J3" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
       <items count="6">
@@ -967,7 +1049,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
@@ -976,7 +1058,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
+    <pivotField showAll="0">
       <items count="79">
         <item x="7"/>
         <item x="16"/>
@@ -1059,51 +1141,127 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="97">
+        <item x="19"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="17"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="35"/>
+        <item x="26"/>
+        <item x="22"/>
+        <item x="34"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="38"/>
+        <item x="20"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="27"/>
+        <item x="33"/>
+        <item x="31"/>
+        <item x="81"/>
+        <item x="80"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="52"/>
+        <item x="89"/>
+        <item x="74"/>
+        <item x="79"/>
+        <item x="63"/>
+        <item x="92"/>
+        <item x="54"/>
+        <item x="28"/>
+        <item x="88"/>
+        <item x="82"/>
+        <item x="53"/>
+        <item x="93"/>
+        <item x="72"/>
+        <item x="91"/>
+        <item x="76"/>
+        <item x="69"/>
+        <item x="56"/>
+        <item x="90"/>
+        <item x="84"/>
+        <item x="86"/>
+        <item x="60"/>
+        <item x="46"/>
+        <item x="83"/>
+        <item x="87"/>
+        <item x="57"/>
+        <item x="64"/>
+        <item x="70"/>
+        <item x="78"/>
+        <item x="75"/>
+        <item x="65"/>
+        <item x="62"/>
+        <item x="49"/>
+        <item x="61"/>
+        <item x="48"/>
+        <item x="94"/>
+        <item x="43"/>
+        <item x="77"/>
+        <item x="67"/>
+        <item x="85"/>
+        <item x="51"/>
+        <item x="73"/>
+        <item x="39"/>
+        <item x="42"/>
+        <item x="55"/>
+        <item x="68"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="50"/>
+        <item x="41"/>
+        <item x="71"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="47"/>
+        <item x="95"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
     <i>
-      <x/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="0"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
   </colItems>
-  <dataFields count="2">
-    <dataField name="Min of TL" fld="3" subtotal="min" baseField="0" baseItem="0"/>
-    <dataField name="Max of TL" fld="3" subtotal="max" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Average of FM" fld="4" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1414,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E38C00-8BCC-C44F-9CD1-57696D1BBA15}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1427,22 +1585,21 @@
     <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1481,17 +1638,14 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1507,23 +1661,20 @@
       <c r="E3">
         <v>25.9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H3" s="2">
+        <v>496.56428571428563</v>
+      </c>
+      <c r="I3" s="2">
+        <v>589.04999999999995</v>
+      </c>
+      <c r="J3" s="2">
+        <v>542.80714285714282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1539,29 +1690,8 @@
       <c r="E4">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3">
-        <v>347</v>
-      </c>
-      <c r="I4" s="3">
-        <v>425</v>
-      </c>
-      <c r="J4" s="3">
-        <v>326</v>
-      </c>
-      <c r="K4" s="3">
-        <v>503</v>
-      </c>
-      <c r="L4" s="3">
-        <v>326</v>
-      </c>
-      <c r="M4" s="3">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1577,29 +1707,8 @@
       <c r="E5">
         <v>24.1</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3">
-        <v>321</v>
-      </c>
-      <c r="I5" s="3">
-        <v>415</v>
-      </c>
-      <c r="J5" s="3">
-        <v>343</v>
-      </c>
-      <c r="K5" s="3">
-        <v>463</v>
-      </c>
-      <c r="L5" s="3">
-        <v>321</v>
-      </c>
-      <c r="M5" s="3">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1615,29 +1724,8 @@
       <c r="E6">
         <v>21</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3">
-        <v>321</v>
-      </c>
-      <c r="I6" s="3">
-        <v>425</v>
-      </c>
-      <c r="J6" s="3">
-        <v>326</v>
-      </c>
-      <c r="K6" s="3">
-        <v>503</v>
-      </c>
-      <c r="L6" s="3">
-        <v>321</v>
-      </c>
-      <c r="M6" s="3">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1654,7 +1742,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1671,7 +1759,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1688,7 +1776,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1705,7 +1793,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1722,7 +1810,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1739,7 +1827,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1756,7 +1844,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1773,7 +1861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1790,7 +1878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>

--- a/data/Coregonine-Temperature-Experiment-AdultMeasurements.xlsx
+++ b/data/Coregonine-Temperature-Experiment-AdultMeasurements.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Latitude-Embryo/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Temp-Embryo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7B12C2-4AD2-3C4B-99CC-CE20E32B22C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1E9015-0808-DE4A-8787-3EAA6FAD89C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15400" yWindow="500" windowWidth="18200" windowHeight="19060" xr2:uid="{3E48306B-C0C5-BC40-9A7D-9108E98D2F1F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19060" activeTab="2" xr2:uid="{3E48306B-C0C5-BC40-9A7D-9108E98D2F1F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Adult" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Adult" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="22">
   <si>
     <t>Population</t>
   </si>
@@ -80,6 +82,30 @@
   <si>
     <t>Average of FM</t>
   </si>
+  <si>
+    <t>Total Average of FM</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Average of TL</t>
+  </si>
+  <si>
+    <t>StdDev of TL</t>
+  </si>
+  <si>
+    <t>StdDev of FM</t>
+  </si>
+  <si>
+    <t>Total StdDev of FM</t>
+  </si>
+  <si>
+    <t>Total Average of TL</t>
+  </si>
+  <si>
+    <t>Total StdDev of TL</t>
+  </si>
 </sst>
 </file>
 
@@ -114,10 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,8 +1065,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD37B30F-0408-7341-A805-CBACA7158804}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G1:J3" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD37B30F-0408-7341-A805-CBACA7158804}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G1:S6" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
       <items count="6">
@@ -1049,7 +1078,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
@@ -1058,7 +1087,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField dataField="1" showAll="0">
       <items count="79">
         <item x="7"/>
         <item x="16"/>
@@ -1243,25 +1272,71 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
-  <colFields count="1">
+  <colFields count="2">
+    <field x="-2"/>
     <field x="0"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="12">
     <i>
+      <x/>
       <x v="2"/>
     </i>
-    <i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i r="1" i="1">
+      <x v="3"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+      <x v="2"/>
+    </i>
+    <i r="1" i="2">
+      <x v="3"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
       <x v="3"/>
     </i>
     <i t="grand">
       <x/>
     </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+    <i t="grand" i="2">
+      <x/>
+    </i>
+    <i t="grand" i="3">
+      <x/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="4">
     <dataField name="Average of FM" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="StdDev of FM" fld="4" subtotal="stdDev" baseField="0" baseItem="0"/>
+    <dataField name="Average of TL" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="StdDev of TL" fld="3" subtotal="stdDev" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1273,6 +1348,34 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA57B1E0-F9D5-BF40-879A-BAF2540F85E7}" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+  <autoFilter ref="A1:E29" xr:uid="{E2CF8F41-5435-1441-8C70-7F500EA9ED5E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{BCE44D9C-946F-BE42-868F-8033B90E363D}" name="Population"/>
+    <tableColumn id="2" xr3:uid="{A9FEAA31-A5C0-1B41-9941-5818D7F36472}" name="Sex"/>
+    <tableColumn id="3" xr3:uid="{FF6F023E-0D11-0B40-9B21-279E2925DED1}" name="ID"/>
+    <tableColumn id="4" xr3:uid="{10CF50A0-06F1-8546-B3CA-A54338362AB0}" name="TL"/>
+    <tableColumn id="5" xr3:uid="{3A67057A-68A8-A140-8D80-0AF8FD0842E0}" name="FM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92E0D5A1-D32B-9042-9FCB-3AC9EE37B6EC}" name="Table2" displayName="Table2" ref="A1:E57" totalsRowShown="0">
+  <autoFilter ref="A1:E57" xr:uid="{65D94971-263D-F348-B696-DB6F92C997D1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C3A059DF-D3E1-414B-A940-40538887D90A}" name="Population"/>
+    <tableColumn id="2" xr3:uid="{ACFF1024-20FF-5442-AE7A-B6D5EA26D159}" name="Sex"/>
+    <tableColumn id="3" xr3:uid="{73E20DC6-D224-A849-862E-B6DDE52B08E6}" name="ID"/>
+    <tableColumn id="4" xr3:uid="{9792AEC7-318A-AE41-B905-9E30ADC767BC}" name="TL"/>
+    <tableColumn id="5" xr3:uid="{850D935A-16D3-AF47-857B-BA084E3C4782}" name="FM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1571,11 +1674,1515 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6A7A8A-D92B-A749-80CE-FDA2C987F606}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>402</v>
+      </c>
+      <c r="E2">
+        <v>608.29999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>373</v>
+      </c>
+      <c r="E3">
+        <v>440.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>353</v>
+      </c>
+      <c r="E4">
+        <v>375.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>367</v>
+      </c>
+      <c r="E5">
+        <v>454.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>375</v>
+      </c>
+      <c r="E6">
+        <v>477.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>343</v>
+      </c>
+      <c r="E7">
+        <v>340.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>353</v>
+      </c>
+      <c r="E8">
+        <v>408.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>380</v>
+      </c>
+      <c r="E9">
+        <v>525.20000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>368</v>
+      </c>
+      <c r="E10">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>415</v>
+      </c>
+      <c r="E11">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>376</v>
+      </c>
+      <c r="E12">
+        <v>486.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>394</v>
+      </c>
+      <c r="E13">
+        <v>510.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>365</v>
+      </c>
+      <c r="E14">
+        <v>417.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>325</v>
+      </c>
+      <c r="E15">
+        <v>280.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>321</v>
+      </c>
+      <c r="E16">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>355</v>
+      </c>
+      <c r="E17">
+        <v>355.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>379</v>
+      </c>
+      <c r="E18">
+        <v>558.79999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>391</v>
+      </c>
+      <c r="E19">
+        <v>616.79999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>360</v>
+      </c>
+      <c r="E20">
+        <v>466.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>375</v>
+      </c>
+      <c r="E21">
+        <v>563.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>355</v>
+      </c>
+      <c r="E22">
+        <v>349.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>402</v>
+      </c>
+      <c r="E23">
+        <v>646.79999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>347</v>
+      </c>
+      <c r="E24">
+        <v>446.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>425</v>
+      </c>
+      <c r="E25">
+        <v>795.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>384</v>
+      </c>
+      <c r="E26">
+        <v>557.79999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>350</v>
+      </c>
+      <c r="E27">
+        <v>469.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>405</v>
+      </c>
+      <c r="E28">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>391</v>
+      </c>
+      <c r="E29">
+        <v>635.29999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313997BB-B4B4-0641-A7C0-7A065A59C3AE}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>402</v>
+      </c>
+      <c r="E2">
+        <v>608.29999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>373</v>
+      </c>
+      <c r="E3">
+        <v>440.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>353</v>
+      </c>
+      <c r="E4">
+        <v>375.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>367</v>
+      </c>
+      <c r="E5">
+        <v>454.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>375</v>
+      </c>
+      <c r="E6">
+        <v>477.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>343</v>
+      </c>
+      <c r="E7">
+        <v>340.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>353</v>
+      </c>
+      <c r="E8">
+        <v>408.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>380</v>
+      </c>
+      <c r="E9">
+        <v>525.20000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>368</v>
+      </c>
+      <c r="E10">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>415</v>
+      </c>
+      <c r="E11">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>376</v>
+      </c>
+      <c r="E12">
+        <v>486.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>394</v>
+      </c>
+      <c r="E13">
+        <v>510.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>365</v>
+      </c>
+      <c r="E14">
+        <v>417.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>325</v>
+      </c>
+      <c r="E15">
+        <v>280.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>321</v>
+      </c>
+      <c r="E16">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>355</v>
+      </c>
+      <c r="E17">
+        <v>355.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>379</v>
+      </c>
+      <c r="E18">
+        <v>558.79999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>391</v>
+      </c>
+      <c r="E19">
+        <v>616.79999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>360</v>
+      </c>
+      <c r="E20">
+        <v>466.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>375</v>
+      </c>
+      <c r="E21">
+        <v>563.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>355</v>
+      </c>
+      <c r="E22">
+        <v>349.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>402</v>
+      </c>
+      <c r="E23">
+        <v>646.79999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>347</v>
+      </c>
+      <c r="E24">
+        <v>446.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>425</v>
+      </c>
+      <c r="E25">
+        <v>795.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>384</v>
+      </c>
+      <c r="E26">
+        <v>557.79999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>350</v>
+      </c>
+      <c r="E27">
+        <v>469.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>405</v>
+      </c>
+      <c r="E28">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>391</v>
+      </c>
+      <c r="E29">
+        <v>635.29999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>343</v>
+      </c>
+      <c r="E30">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>401</v>
+      </c>
+      <c r="E31">
+        <v>573.70000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>391</v>
+      </c>
+      <c r="E32">
+        <v>552.20000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>347</v>
+      </c>
+      <c r="E33">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>405</v>
+      </c>
+      <c r="E34">
+        <v>573.79999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>418</v>
+      </c>
+      <c r="E35">
+        <v>582.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>388</v>
+      </c>
+      <c r="E36">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>448</v>
+      </c>
+      <c r="E37">
+        <v>719.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>463</v>
+      </c>
+      <c r="E38">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>413</v>
+      </c>
+      <c r="E39">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>406</v>
+      </c>
+      <c r="E40">
+        <v>471.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>444</v>
+      </c>
+      <c r="E41">
+        <v>660.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>417</v>
+      </c>
+      <c r="E42">
+        <v>654.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>326</v>
+      </c>
+      <c r="E43">
+        <v>298.89999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>423</v>
+      </c>
+      <c r="E44">
+        <v>776.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>409</v>
+      </c>
+      <c r="E45">
+        <v>656.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>428</v>
+      </c>
+      <c r="E46">
+        <v>612.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>464</v>
+      </c>
+      <c r="E47">
+        <v>831.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>470</v>
+      </c>
+      <c r="E48">
+        <v>882.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>401</v>
+      </c>
+      <c r="E49">
+        <v>509.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>503</v>
+      </c>
+      <c r="E50">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>427</v>
+      </c>
+      <c r="E51">
+        <v>585.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>416</v>
+      </c>
+      <c r="E52">
+        <v>579.20000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>463</v>
+      </c>
+      <c r="E53">
+        <v>755.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>416</v>
+      </c>
+      <c r="E54">
+        <v>644.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>374</v>
+      </c>
+      <c r="E55">
+        <v>334.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>386</v>
+      </c>
+      <c r="E56">
+        <v>433.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>361</v>
+      </c>
+      <c r="E57">
+        <v>376.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E38C00-8BCC-C44F-9CD1-57696D1BBA15}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1585,21 +3192,19 @@
     <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +3224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1636,16 +3241,31 @@
         <v>11.5</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1661,20 +3281,35 @@
       <c r="E3">
         <v>25.9</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2">
-        <v>496.56428571428563</v>
-      </c>
-      <c r="I3" s="2">
-        <v>589.04999999999995</v>
-      </c>
-      <c r="J3" s="2">
-        <v>542.80714285714282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1690,8 +3325,47 @@
       <c r="E4">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2">
+        <v>567.5916666666667</v>
+      </c>
+      <c r="I4" s="2">
+        <v>676.02499999999998</v>
+      </c>
+      <c r="J4" s="2">
+        <v>122.88867436781432</v>
+      </c>
+      <c r="K4" s="2">
+        <v>181.51367153618293</v>
+      </c>
+      <c r="L4" s="2">
+        <v>380.33333333333331</v>
+      </c>
+      <c r="M4" s="2">
+        <v>428.91666666666669</v>
+      </c>
+      <c r="N4" s="2">
+        <v>24.178628178746361</v>
+      </c>
+      <c r="O4" s="2">
+        <v>44.399955637433315</v>
+      </c>
+      <c r="P4" s="2">
+        <v>621.80833333333328</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>161.39122845801936</v>
+      </c>
+      <c r="R4" s="2">
+        <v>404.625</v>
+      </c>
+      <c r="S4" s="2">
+        <v>42.873740316138182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1707,8 +3381,47 @@
       <c r="E5">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>443.29374999999999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>523.81875000000002</v>
+      </c>
+      <c r="J5" s="2">
+        <v>103.15722930717624</v>
+      </c>
+      <c r="K5" s="2">
+        <v>134.64599124494305</v>
+      </c>
+      <c r="L5" s="2">
+        <v>366.5625</v>
+      </c>
+      <c r="M5" s="2">
+        <v>400.25</v>
+      </c>
+      <c r="N5" s="2">
+        <v>25.300774032955331</v>
+      </c>
+      <c r="O5" s="2">
+        <v>34.346275877694026</v>
+      </c>
+      <c r="P5" s="2">
+        <v>483.55625000000003</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>124.8791104137994</v>
+      </c>
+      <c r="R5" s="2">
+        <v>383.40625</v>
+      </c>
+      <c r="S5" s="2">
+        <v>34.255076737004465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1724,8 +3437,47 @@
       <c r="E6">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2">
+        <v>496.56428571428569</v>
+      </c>
+      <c r="I6" s="2">
+        <v>589.05000000000007</v>
+      </c>
+      <c r="J6" s="2">
+        <v>126.44450755989165</v>
+      </c>
+      <c r="K6" s="2">
+        <v>171.40164548239909</v>
+      </c>
+      <c r="L6" s="2">
+        <v>372.46428571428572</v>
+      </c>
+      <c r="M6" s="2">
+        <v>412.53571428571428</v>
+      </c>
+      <c r="N6" s="2">
+        <v>25.336961937289026</v>
+      </c>
+      <c r="O6" s="2">
+        <v>40.831616420010967</v>
+      </c>
+      <c r="P6" s="2">
+        <v>542.80714285714282</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>156.35928423420816</v>
+      </c>
+      <c r="R6" s="2">
+        <v>392.5</v>
+      </c>
+      <c r="S6" s="2">
+        <v>39.272474746662866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1742,7 +3494,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1759,7 +3511,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1776,7 +3528,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1793,7 +3545,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1810,7 +3562,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1827,7 +3579,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1844,7 +3596,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1861,7 +3613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +3630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>

--- a/data/Coregonine-Temperature-Experiment-AdultMeasurements.xlsx
+++ b/data/Coregonine-Temperature-Experiment-AdultMeasurements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Temp-Embryo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1E9015-0808-DE4A-8787-3EAA6FAD89C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A207D064-D00C-C74F-951D-51C47924744D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19060" activeTab="2" xr2:uid="{3E48306B-C0C5-BC40-9A7D-9108E98D2F1F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Adult" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -3182,7 +3182,7 @@
   <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
